--- a/biology/Médecine/Abdel_Halim_Muhammad/Abdel_Halim_Muhammad.xlsx
+++ b/biology/Médecine/Abdel_Halim_Muhammad/Abdel_Halim_Muhammad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abdel Halim Muhammad, né le 10 avril 1910 à Omdurman et mort le 16 avril 2009 à Khartoum, est un homme politique et un dirigeant sportif soudanais.
 </t>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Docteur de formation après avoir étudié au Gordon Memorial College ainsi qu'à la Kitchener School of Medicine (en), il intègre le Royal College of Physicians à Londres[1].
-Il est directeur de l'hôpital d'Omdurman de 1950 à 1953 et médecin-chef de l'hôpital universitaire de Khartoum de 1954 à 1964[2].
-Il est président du conseil de l'université de Khartoum de 1956 à 1963,  président de l'Association médicale soudanaise de 1949 à 1964 et médecin-conseil auprès du Ministère  de la Santé. Il est maire de Khartoum de 1953 à 1960[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Docteur de formation après avoir étudié au Gordon Memorial College ainsi qu'à la Kitchener School of Medicine (en), il intègre le Royal College of Physicians à Londres.
+Il est directeur de l'hôpital d'Omdurman de 1950 à 1953 et médecin-chef de l'hôpital universitaire de Khartoum de 1954 à 1964.
+Il est président du conseil de l'université de Khartoum de 1956 à 1963,  président de l'Association médicale soudanaise de 1949 à 1964 et médecin-conseil auprès du Ministère  de la Santé. Il est maire de Khartoum de 1953 à 1960.
 Il siège entre décembre 1964 et juillet 1965 au Conseil suprême de la République du Soudan, le gouvernement provisoire de coalition.
-Il est membre du Comité international olympique de 1968 à 1982[2].
+Il est membre du Comité international olympique de 1968 à 1982.
 En 1968, il est élu président de la Confédération africaine de football en 1968, succédant à l'Égyptien Mohamed Abdelaziz Moustapha. À l'issue de son mandat, en 1972, il est remplacé par l'Éthiopien Ydnekatchew Tessema, qui va occuper le poste durant quatre mandats consécutifs. À la mort de ce dernier, le 18 août 1987, Muhammad assure l'intérim à la tête de la confédération, le temps de mettre en place de nouvelles élections qui voient la victoire du Camerounais Issa Hayatou le 10 mars 1988.
-Il meurt le 16 avril 2009 à Khartoum à l'âge de 99 ans[3].
+Il meurt le 16 avril 2009 à Khartoum à l'âge de 99 ans.
 </t>
         </is>
       </c>
